--- a/Hypnos V2.1/Bill of Materials - Hypnos V2.1.xlsx
+++ b/Hypnos V2.1/Bill of Materials - Hypnos V2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bao Nguyen\Documents\GitHub\OPEnS-Power\Hypnos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tek\Desktop\Store\Hypnos V2.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513C0783-F7BD-41A2-9BFA-B00C7B876134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0E87D0-21BB-416C-AC9B-1BABDEBADBD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="756" windowWidth="3360" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digikey" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="74">
   <si>
     <t>Digikey</t>
   </si>
@@ -163,9 +161,6 @@
     <t>534-3000TR</t>
   </si>
   <si>
-    <t>Not complete</t>
-  </si>
-  <si>
     <t>Not on Arrow</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
   </si>
   <si>
     <t>603-CC206KKX7R0BB104</t>
-  </si>
-  <si>
-    <t>Mouser is more expensive</t>
   </si>
   <si>
     <t>Min 100 order</t>
@@ -760,23 +752,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="27.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="5"/>
-    <col min="4" max="4" width="31.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="22.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="27.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="5"/>
+    <col min="4" max="4" width="31.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="5"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -799,18 +791,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10">
         <v>0.17</v>
@@ -820,7 +812,7 @@
         <v>0.17</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -829,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -850,7 +842,7 @@
         <v>0.66</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -859,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -872,7 +864,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -885,18 +877,18 @@
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="14">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="14">
         <v>0.1</v>
@@ -906,7 +898,7 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -915,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
@@ -936,7 +928,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -945,7 +937,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -966,14 +958,14 @@
         <v>1.95</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -994,14 +986,14 @@
         <v>8.77</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1014,7 +1006,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1027,7 @@
         <v>0.68</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1044,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
@@ -1065,14 +1057,14 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1085,7 @@
         <v>0.2</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1102,7 +1094,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1115,7 @@
         <v>0.38</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1132,7 +1124,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1145,7 @@
         <v>1.02</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1162,18 +1154,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="10">
         <v>0.1</v>
@@ -1183,7 +1175,7 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1192,18 +1184,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="10">
         <v>0.1</v>
@@ -1213,7 +1205,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1222,18 +1214,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" s="10">
         <v>0.1</v>
@@ -1243,7 +1235,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1252,18 +1244,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="29">
         <v>0.44</v>
@@ -1273,16 +1265,16 @@
         <v>0.44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="25" t="s">
         <v>5</v>
@@ -1292,16 +1284,16 @@
         <v>15.879999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
     </row>
   </sheetData>
@@ -1333,20 +1325,20 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -1373,18 +1365,18 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="10">
         <v>0.15</v>
@@ -1394,7 +1386,7 @@
         <v>0.15</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1405,7 +1397,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1418,7 @@
         <v>0.62</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -1437,7 +1429,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1452,7 +1444,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1465,18 +1457,18 @@
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="14">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="14">
         <v>0.1</v>
@@ -1486,7 +1478,7 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -1495,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1508,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1527,7 +1519,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
@@ -1548,7 +1540,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1557,7 +1549,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1578,18 +1570,18 @@
         <v>8.77</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
       <c r="L9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1604,7 +1596,7 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1617,7 @@
         <v>0.66</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
@@ -1636,7 +1628,7 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1657,18 +1649,18 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
       <c r="L12" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1679,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="21">
         <v>0.09</v>
@@ -1689,7 +1681,7 @@
         <v>0.18</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1700,7 +1692,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1713,7 @@
         <v>0.36</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1732,7 +1724,7 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>0.86</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1764,18 +1756,18 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="10">
         <v>0.1</v>
@@ -1785,7 +1777,7 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1796,18 +1788,18 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10">
         <v>0.1</v>
@@ -1817,7 +1809,7 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1828,18 +1820,18 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="10">
         <v>0.1</v>
@@ -1849,7 +1841,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1858,18 +1850,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="29">
         <v>0.44</v>
@@ -1879,10 +1871,10 @@
         <v>0.44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1890,7 +1882,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1936,20 +1928,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00EFBA5-BB63-4E95-AAB6-77207EAA5FF2}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -1976,18 +1968,18 @@
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29">
         <v>0.16</v>
@@ -1997,7 +1989,7 @@
         <v>0.16</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
@@ -2006,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
@@ -2034,7 +2026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2047,7 +2039,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2060,18 +2052,18 @@
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="14">
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="14">
         <v>0.1</v>
@@ -2081,7 +2073,7 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2090,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -2101,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="25">
         <v>0.1</v>
@@ -2111,7 +2103,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -2120,7 +2112,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -2141,14 +2133,14 @@
         <v>1.95</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -2169,14 +2161,14 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="26"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2189,7 +2181,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="26"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
@@ -2210,7 +2202,7 @@
         <v>0.68</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -2219,7 +2211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -2240,14 +2232,14 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="34">
         <v>0.15</v>
@@ -2268,7 +2260,7 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -2277,7 +2269,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>37</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="25">
         <v>0.26</v>
@@ -2298,7 +2290,7 @@
         <v>0.52</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2307,7 +2299,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
@@ -2318,7 +2310,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="25">
         <v>0.5</v>
@@ -2328,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -2337,18 +2329,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="29">
         <v>0.1</v>
@@ -2358,7 +2350,7 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -2367,18 +2359,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="29">
         <v>0.23</v>
@@ -2388,7 +2380,7 @@
         <v>0.23</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -2397,18 +2389,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="29">
         <v>0.1</v>
@@ -2418,7 +2410,7 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -2427,18 +2419,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="29">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="29">
         <v>0.44</v>
@@ -2448,16 +2440,16 @@
         <v>0.44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -2470,14 +2462,12 @@
         <v>16.490000000000002</v>
       </c>
       <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
-        <v>46</v>
-      </c>
+      <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2490,7 +2480,7 @@
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -2503,10 +2493,8 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
-        <v>42</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -2518,7 +2506,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
